--- a/gaza_injuries_fc/inputs/gaza_injuries_parameters.xlsx
+++ b/gaza_injuries_fc/inputs/gaza_injuries_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza\gaza_injuries_fc\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchec\Desktop\work\gaza\gaza_injuries_fc\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8D8BD-082E-4161-942A-33E5406F9A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6960C2CC-B286-43D8-AB76-2DA1B93AEA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>parameter</t>
   </si>
@@ -188,15 +188,22 @@
   </si>
   <si>
     <t>escalation scenario</t>
+  </si>
+  <si>
+    <t>prop_m</t>
+  </si>
+  <si>
+    <t>proportion of population that are male</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -315,7 +322,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -642,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583212BB-FE43-40DF-83EF-3CBB0F7B7681}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -773,75 +780,97 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="15">
+        <v>0.50936476751800919</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.50936476751800919</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.50901403532742773</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.511398518102682</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0.51122748435213039</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.51113377753639511</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.50836256618448883</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.5015690704826461</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.49875722097468161</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.51044447934663106</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.49738678684317589</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.47236639079814841</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.38101476893758934</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -859,17 +888,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -887,17 +918,17 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2">
-        <v>1000</v>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -913,19 +944,19 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="2">
-        <v>11908</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -943,19 +974,17 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15">
-        <v>0.251</v>
+      <c r="E9" s="2">
+        <v>11908</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -973,19 +1002,19 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="15">
-        <v>0.316</v>
+      <c r="E10" s="2">
+        <v>0.251</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1003,19 +1032,19 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="15">
-        <v>0.36199999999999999</v>
+      <c r="E11" s="2">
+        <v>0.316</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1031,13 +1060,43 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E9">
+  <conditionalFormatting sqref="E2:E10">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
+  <conditionalFormatting sqref="E2:E12">
     <cfRule type="expression" dxfId="4" priority="7">
       <formula>#REF!="Y"</formula>
     </cfRule>
@@ -1045,17 +1104,17 @@
       <formula>$D2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E9">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:R7">
+  <conditionalFormatting sqref="E2:R8">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:R11">
+  <conditionalFormatting sqref="F2:R12">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>$D2="N"</formula>
     </cfRule>
@@ -1073,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F660E6-5143-4696-8002-5A54BACEA86B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
